--- a/attachments/陈二万的表连接.xlsx
+++ b/attachments/陈二万的表连接.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aspoon/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aspoon/workspace/codes/personal/python-test-demos/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873A478D-8BB1-B84A-918B-E80940AFEB07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAD2A0E-224A-4547-8E49-9955A4A2909E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22640" xr2:uid="{44C63BBC-AC26-154C-8550-E8756D25D06E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="59">
   <si>
     <t>a1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,10 +68,6 @@
   </si>
   <si>
     <t>A3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -250,6 +246,21 @@
   </si>
   <si>
     <t>表连接 JOIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k1</t>
+  </si>
+  <si>
+    <t>k1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -382,6 +393,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -389,12 +406,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -713,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93189F13-0CC4-C84F-96BC-1506A62527FD}">
   <dimension ref="B2:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="200" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -724,90 +735,90 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20">
-      <c r="D2" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="N2" s="12" t="s">
+      <c r="D2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="N2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
     </row>
     <row r="4" spans="2:20">
       <c r="D4" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="I4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="N4" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O4" s="7"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R4" s="7"/>
       <c r="T4" s="2"/>
     </row>
     <row r="5" spans="2:20">
       <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="I5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="N5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="O5" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="Q5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="R5" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:20">
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>0</v>
@@ -819,10 +830,10 @@
         <v>2</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>8</v>
@@ -834,7 +845,7 @@
         <v>10</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>6</v>
@@ -843,7 +854,7 @@
         <v>18</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R6" s="1">
         <v>5</v>
@@ -851,7 +862,7 @@
     </row>
     <row r="7" spans="2:20">
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -863,22 +874,22 @@
         <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="L7" s="1" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>7</v>
@@ -887,70 +898,70 @@
         <v>19</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R7" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:20">
-      <c r="D10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="10"/>
+      <c r="D10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="12"/>
       <c r="L10" s="2"/>
-      <c r="N10" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
+      <c r="N10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
     </row>
     <row r="11" spans="2:20">
       <c r="D11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="L11" s="2"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
     </row>
     <row r="12" spans="2:20">
       <c r="B12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>0</v>
@@ -962,7 +973,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>8</v>
@@ -974,31 +985,31 @@
         <v>10</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
     </row>
     <row r="13" spans="2:20">
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
     </row>
     <row r="14" spans="2:20">
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
     </row>
     <row r="15" spans="2:20" ht="16" customHeight="1">
       <c r="D15" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -1011,37 +1022,37 @@
     </row>
     <row r="16" spans="2:20">
       <c r="D16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="2:15">
       <c r="B17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>0</v>
@@ -1053,7 +1064,7 @@
         <v>2</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>8</v>
@@ -1065,21 +1076,21 @@
         <v>10</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="N17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O17" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>3</v>
@@ -1091,19 +1102,19 @@
         <v>5</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>6</v>
@@ -1114,7 +1125,7 @@
     </row>
     <row r="19" spans="2:15">
       <c r="N19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O19" s="1">
         <v>6</v>
@@ -1122,7 +1133,7 @@
     </row>
     <row r="21" spans="2:15">
       <c r="D21" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -1135,37 +1146,37 @@
     </row>
     <row r="22" spans="2:15">
       <c r="D22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="2:15">
       <c r="B23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>0</v>
@@ -1177,7 +1188,7 @@
         <v>2</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>8</v>
@@ -1189,44 +1200,44 @@
         <v>10</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="2:15">
       <c r="B24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="K24" s="1" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="2:15">
       <c r="D27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -1238,37 +1249,37 @@
     </row>
     <row r="28" spans="2:15">
       <c r="D28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="G28" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="I28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="J28" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="K28" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="2:15">
       <c r="B29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>0</v>
@@ -1280,7 +1291,7 @@
         <v>2</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>8</v>
@@ -1292,15 +1303,15 @@
         <v>10</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="2:15">
       <c r="B30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>3</v>
@@ -1312,56 +1323,56 @@
         <v>5</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="2:15">
       <c r="B31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="J31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="K31" s="1" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="2:12">
       <c r="D34" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
@@ -1373,37 +1384,37 @@
     </row>
     <row r="35" spans="2:12">
       <c r="D35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="G35" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="H35" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="I35" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="J35" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="K35" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="2:12">
       <c r="B36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>0</v>
@@ -1415,7 +1426,7 @@
         <v>2</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>8</v>
@@ -1427,15 +1438,15 @@
         <v>10</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="2:12">
       <c r="B37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>0</v>
@@ -1447,27 +1458,27 @@
         <v>2</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="H37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="J37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J37" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="K37" s="1" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="2:12">
       <c r="B38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>3</v>
@@ -1479,7 +1490,7 @@
         <v>5</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>8</v>
@@ -1491,15 +1502,15 @@
         <v>10</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="2:12">
       <c r="B39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>3</v>
@@ -1511,19 +1522,19 @@
         <v>5</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="H39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="J39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J39" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="K39" s="1" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
